--- a/Team-Data/2012-13/2-25-2012-13.xlsx
+++ b/Team-Data/2012-13/2-25-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
         <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>9.1</v>
       </c>
       <c r="M2" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.704</v>
+        <v>0.701</v>
       </c>
       <c r="R2" t="n">
         <v>9.5</v>
@@ -717,46 +784,46 @@
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V2" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -792,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -813,13 +880,13 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.526</v>
+        <v>0.518</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N3" t="n">
         <v>0.343</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
         <v>8.5</v>
@@ -920,13 +987,13 @@
         <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -941,22 +1008,22 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -965,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1117,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1150,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1663,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1726,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1869,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="J9" t="n">
         <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
         <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.5</v>
@@ -1991,13 +2058,13 @@
         <v>45.2</v>
       </c>
       <c r="U9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
@@ -2006,19 +2073,19 @@
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.4</v>
+        <v>105.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2039,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>16</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>3</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2143,7 +2210,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,16 +2219,16 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
         <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.696</v>
+        <v>0.694</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
@@ -2170,10 +2237,10 @@
         <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2182,7 +2249,7 @@
         <v>6.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
@@ -2191,13 +2258,13 @@
         <v>19.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2209,13 +2276,13 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
         <v>18</v>
@@ -2224,13 +2291,13 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
         <v>20</v>
@@ -2239,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2260,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2606,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,16 +3007,16 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
         <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2970,7 +3037,7 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.483</v>
+        <v>0.491</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>81.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
         <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
@@ -3080,7 +3147,7 @@
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U15" t="n">
         <v>22.1</v>
@@ -3104,13 +3171,13 @@
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3131,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3140,19 +3207,19 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3164,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>21</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>21</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3331,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3355,13 +3422,13 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
@@ -3889,10 +3956,10 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>24</v>
@@ -4056,10 +4123,10 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4435,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4757,28 +4824,28 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4939,7 +5006,7 @@
         <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4984,7 +5051,7 @@
         <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -4996,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>18</v>
@@ -5127,19 +5194,19 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5321,10 +5388,10 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5521,10 +5588,10 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5643,43 +5710,43 @@
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5688,19 +5755,19 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.544</v>
+        <v>0.554</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
@@ -5828,22 +5895,22 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5852,10 +5919,10 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5867,10 +5934,10 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.327</v>
+        <v>0.315</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J31" t="n">
         <v>82.3</v>
@@ -5971,10 +6038,10 @@
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O31" t="n">
         <v>14.7</v>
@@ -5983,19 +6050,19 @@
         <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
@@ -6010,7 +6077,7 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
         <v>18.8</v>
@@ -6019,19 +6086,19 @@
         <v>92</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,19 +6107,19 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM31" t="n">
         <v>18</v>
       </c>
-      <c r="AM31" t="n">
-        <v>19</v>
-      </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6064,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6073,7 +6140,7 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
         <v>28</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-25-2012-13</t>
+          <t>2013-02-25</t>
         </is>
       </c>
     </row>
